--- a/data/Core_key.xlsx
+++ b/data/Core_key.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pate212/OneDrive - PNNL/Documents/GitHub/hysteresis_github/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pate212/OneDrive - PNNL/Documents/GitHub/hysteresis_github/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{21B50B8F-42C0-6D40-98AE-6D0B35A3714C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{13A5400C-D5B4-A145-8429-996DE0B60A65}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="114_{28A81C39-7A7C-D144-B942-8B6A982AA187}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-1460" windowWidth="38400" windowHeight="21140" xr2:uid="{E0D2E822-CEB2-1645-AA30-6D0D20EF4A04}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15720" xr2:uid="{E0D2E822-CEB2-1645-AA30-6D0D20EF4A04}"/>
   </bookViews>
   <sheets>
     <sheet name="Key" sheetId="1" r:id="rId1"/>
